--- a/gent.xlsx
+++ b/gent.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D59C4-3B1A-A44B-A1A5-ECEAE41746AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E778EF-2AC3-9E41-8363-8637244C6683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{9BBE33A4-B5BF-444D-800D-6CAF4913863D}"/>
+    <workbookView xWindow="16520" yWindow="4600" windowWidth="28040" windowHeight="17440" xr2:uid="{9BBE33A4-B5BF-444D-800D-6CAF4913863D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,6 +58,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -82,12 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +432,7 @@
   <dimension ref="A1:H275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,7 +459,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>9.66</v>
       </c>
       <c r="C2" s="1"/>
@@ -464,9 +471,9 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="B3" s="1">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B3" s="3">
         <v>10</v>
       </c>
       <c r="C3" s="1"/>
@@ -478,9 +485,9 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="B4" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="B4" s="3">
         <v>12</v>
       </c>
       <c r="C4" s="1"/>
@@ -492,9 +499,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="B5" s="1">
+        <v>31.92</v>
+      </c>
+      <c r="B5" s="3">
         <v>24</v>
       </c>
       <c r="C5" s="1"/>
@@ -508,7 +515,7 @@
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>9</v>
       </c>
       <c r="C6" s="1"/>
@@ -520,9 +527,9 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="B7" s="1">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B7" s="3">
         <v>9.5</v>
       </c>
       <c r="C7" s="1"/>
@@ -534,9 +541,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="B8" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="B8" s="3">
         <v>13</v>
       </c>
       <c r="C8" s="1"/>
@@ -548,9 +555,9 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="B9" s="1">
+        <v>31.92</v>
+      </c>
+      <c r="B9" s="3">
         <v>24</v>
       </c>
       <c r="C9" s="1"/>
@@ -564,7 +571,7 @@
       <c r="A10" s="1">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>9.5</v>
       </c>
       <c r="C10" s="1"/>
@@ -576,9 +583,9 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="B11" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="B11" s="3">
         <v>21</v>
       </c>
       <c r="C11" s="1"/>
@@ -592,7 +599,7 @@
       <c r="A12" s="1">
         <v>0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>9.66</v>
       </c>
       <c r="C12" s="1"/>
@@ -604,9 +611,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="B13" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="B13" s="3">
         <v>11.17</v>
       </c>
       <c r="C13" s="1"/>
@@ -620,7 +627,7 @@
       <c r="A14" s="1">
         <v>0</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>9.1</v>
       </c>
       <c r="C14" s="1"/>
@@ -632,9 +639,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="B15" s="1">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B15" s="3">
         <v>9.5</v>
       </c>
       <c r="C15" s="1"/>
@@ -646,9 +653,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="B16" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="B16" s="3">
         <v>11.33</v>
       </c>
       <c r="C16" s="1"/>
@@ -660,9 +667,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="B17" s="1">
+        <v>31.92</v>
+      </c>
+      <c r="B17" s="3">
         <v>24</v>
       </c>
       <c r="C17" s="1"/>
@@ -676,7 +683,7 @@
       <c r="A18" s="1">
         <v>0</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>9.83</v>
       </c>
       <c r="C18" s="1"/>
@@ -688,9 +695,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>0.114</v>
-      </c>
-      <c r="B19" s="1">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="B19" s="3">
         <v>9.83</v>
       </c>
       <c r="C19" s="1"/>
@@ -702,9 +709,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="B20" s="1">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B20" s="3">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
@@ -716,9 +723,9 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="B21" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="B21" s="3">
         <v>13.83</v>
       </c>
       <c r="C21" s="1"/>
@@ -730,9 +737,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="B22" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="B22" s="3">
         <v>24</v>
       </c>
       <c r="C22" s="1"/>
@@ -744,9 +751,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="B23" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="B23" s="3">
         <v>24</v>
       </c>
       <c r="C23" s="1"/>
@@ -760,7 +767,7 @@
       <c r="A24" s="1">
         <v>0</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>9.83</v>
       </c>
       <c r="C24" s="1"/>
@@ -772,9 +779,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>0.114</v>
-      </c>
-      <c r="B25" s="1">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="B25" s="3">
         <v>9.66</v>
       </c>
       <c r="C25" s="1"/>
@@ -786,9 +793,9 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="B26" s="1">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B26" s="3">
         <v>9.83</v>
       </c>
       <c r="C26" s="1"/>
@@ -800,9 +807,9 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="B27" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="B27" s="3">
         <v>12</v>
       </c>
       <c r="C27" s="1"/>
@@ -814,9 +821,9 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="B28" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="B28" s="3">
         <v>24</v>
       </c>
       <c r="C28" s="1"/>
@@ -830,7 +837,7 @@
       <c r="A29" s="1">
         <v>0</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>9</v>
       </c>
       <c r="C29" s="1"/>
@@ -842,9 +849,9 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="B30" s="1">
+        <v>15.96</v>
+      </c>
+      <c r="B30" s="3">
         <v>12</v>
       </c>
       <c r="C30" s="1"/>
@@ -856,9 +863,9 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="B31" s="1">
+        <v>23.939999999999998</v>
+      </c>
+      <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="1"/>
@@ -870,9 +877,9 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="B32" s="1">
+        <v>31.92</v>
+      </c>
+      <c r="B32" s="3">
         <v>24</v>
       </c>
       <c r="C32" s="1"/>
@@ -886,7 +893,7 @@
       <c r="A33" s="1">
         <v>0</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>9</v>
       </c>
       <c r="C33" s="1"/>
@@ -898,9 +905,9 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="B34" s="1">
+        <v>15.96</v>
+      </c>
+      <c r="B34" s="3">
         <v>18</v>
       </c>
       <c r="C34" s="1"/>
@@ -912,9 +919,9 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="B35" s="1">
+        <v>23.939999999999998</v>
+      </c>
+      <c r="B35" s="3">
         <v>21</v>
       </c>
       <c r="C35" s="1"/>
@@ -926,9 +933,9 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="B36" s="1">
+        <v>31.92</v>
+      </c>
+      <c r="B36" s="3">
         <v>24</v>
       </c>
       <c r="C36" s="1"/>
